--- a/Test_Sheet1.xlsx
+++ b/Test_Sheet1.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DC\Downloads\transcript_generator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6744"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="140">
   <si>
     <t>BT18ECE001</t>
   </si>
@@ -416,37 +424,59 @@
   </si>
   <si>
     <t>KOCHERLA VENKATA SAI RAKESH</t>
+  </si>
+  <si>
+    <t>Roll No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -454,7 +484,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -464,7 +494,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -478,6 +514,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -486,65 +523,71 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -734,437 +777,442 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.0"/>
-    <col customWidth="1" min="2" max="2" width="50.86"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="E3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="C10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="C14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="C16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
+      <c r="E18" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
+      <c r="C19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
+      <c r="E20" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
+      <c r="C23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>6</v>
@@ -1173,656 +1221,674 @@
         <v>7</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="s">
+      <c r="D27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="C28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="D31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
+      <c r="D32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="s">
+      <c r="D33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="C34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="s">
+      <c r="E34" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="6" t="s">
+      <c r="D35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="s">
+      <c r="E36" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="s">
+      <c r="E37" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="D38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="6" t="s">
+    <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="s">
+      <c r="D39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="s">
+      <c r="C40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="s">
+      <c r="C41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="s">
+      <c r="C42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="s">
+      <c r="C43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="s">
+      <c r="C44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="s">
+      <c r="D45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
+      <c r="C48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="s">
+      <c r="D49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="9" t="s">
+      <c r="C50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="s">
+      <c r="E50" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="s">
+      <c r="C51" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="s">
+      <c r="C52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="D53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="6" t="s">
+    <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="C54" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6" t="s">
+      <c r="E54" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="s">
+      <c r="C55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="6" t="s">
+      <c r="D56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="10" t="s">
+      <c r="C57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="6" t="s">
+    <row r="58" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="6" t="s">
+      <c r="C58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D59" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E59" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="6" t="s">
+    <row r="60" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="6" t="s">
+      <c r="E60" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="6" t="s">
+      <c r="C61" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="6" t="s">
+      <c r="C62" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="6" t="s">
+      <c r="C63" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D64" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E64" s="10" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test_Sheet1.xlsx
+++ b/Test_Sheet1.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6744" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="329">
   <si>
     <t>BT18ECE001</t>
   </si>
@@ -439,13 +442,580 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>DD*</t>
+  </si>
+  <si>
+    <t>CC*</t>
+  </si>
+  <si>
+    <t>BT17ECE001</t>
+  </si>
+  <si>
+    <t>VALLURI KOUSHIK</t>
+  </si>
+  <si>
+    <t>BT17ECE022</t>
+  </si>
+  <si>
+    <t>AYUSHI MARKAM</t>
+  </si>
+  <si>
+    <t>BT17ECE043</t>
+  </si>
+  <si>
+    <t>SHAIK SHARIQ NEHAL</t>
+  </si>
+  <si>
+    <t>BT17ECE046</t>
+  </si>
+  <si>
+    <t>INUMULA PRANEETH</t>
+  </si>
+  <si>
+    <t>BT17ECE047</t>
+  </si>
+  <si>
+    <t>HANS KRAUSE PAKA</t>
+  </si>
+  <si>
+    <t>BT17ECE049</t>
+  </si>
+  <si>
+    <t>TOONDLA VASISHTA</t>
+  </si>
+  <si>
+    <t>BT17ECE055</t>
+  </si>
+  <si>
+    <t>CHAPPA BHARAT</t>
+  </si>
+  <si>
+    <t>BT17ECE058</t>
+  </si>
+  <si>
+    <t>PAWAR MAHESH</t>
+  </si>
+  <si>
+    <t>BT17ECE069</t>
+  </si>
+  <si>
+    <t>ASHOK KUMAR VARSALA</t>
+  </si>
+  <si>
+    <t>BT17ECE075</t>
+  </si>
+  <si>
+    <t>AMBUJ YADAV</t>
+  </si>
+  <si>
+    <t>BT17ECE078</t>
+  </si>
+  <si>
+    <t>ENUGULA SRAVAN KUMAR</t>
+  </si>
+  <si>
+    <t>BT17ECE079</t>
+  </si>
+  <si>
+    <t>NILIMAY NIRBHIK</t>
+  </si>
+  <si>
+    <t>BT17ECE080</t>
+  </si>
+  <si>
+    <t>NINAD GAWANDE</t>
+  </si>
+  <si>
+    <t>BT17ECE081</t>
+  </si>
+  <si>
+    <t>PANERI SAHARE</t>
+  </si>
+  <si>
+    <t>BT17CSE080</t>
+  </si>
+  <si>
+    <t>SHUBHAM KUMAR</t>
+  </si>
+  <si>
+    <t>BT17CSE082</t>
+  </si>
+  <si>
+    <t>RAUSHAN KUMAR</t>
+  </si>
+  <si>
+    <t>BT17CSE088</t>
+  </si>
+  <si>
+    <t>SHUBHAM MUNALE</t>
+  </si>
+  <si>
+    <t>BT17CSE090</t>
+  </si>
+  <si>
+    <t>ANUDEEP IRMALWAR</t>
+  </si>
+  <si>
+    <t>BT17CSE092</t>
+  </si>
+  <si>
+    <t>ANUMEHA LAKRA</t>
+  </si>
+  <si>
+    <t>BT17CSE097</t>
+  </si>
+  <si>
+    <t>KARAN KUSHWAHA</t>
+  </si>
+  <si>
+    <t>BT17CSE099</t>
+  </si>
+  <si>
+    <t>RAVI KUMAR SINHA</t>
+  </si>
+  <si>
+    <t>BT17CSE103</t>
+  </si>
+  <si>
+    <t>SAMYAK BORKAR</t>
+  </si>
+  <si>
+    <t>BT17CSE105</t>
+  </si>
+  <si>
+    <t>MANTHAN CHOURASIA</t>
+  </si>
+  <si>
+    <t>BT17CSE106</t>
+  </si>
+  <si>
+    <t>SUPRIYA VENKATESH</t>
+  </si>
+  <si>
+    <t>BT17CSE111</t>
+  </si>
+  <si>
+    <t>ADITI KHOBRAGADE</t>
+  </si>
+  <si>
+    <t>BT17CSE114</t>
+  </si>
+  <si>
+    <t>SANTIPRIYA BODEBOINA</t>
+  </si>
+  <si>
+    <t>CD*</t>
+  </si>
+  <si>
+    <t>BT18CSE033</t>
+  </si>
+  <si>
+    <t>VUNDI SWETHA</t>
+  </si>
+  <si>
+    <t>BT18CSE038</t>
+  </si>
+  <si>
+    <t>VIVEK DIXIT</t>
+  </si>
+  <si>
+    <t>BT18CSE039</t>
+  </si>
+  <si>
+    <t>AATRAM SUJITH</t>
+  </si>
+  <si>
+    <t>BT18CSE055</t>
+  </si>
+  <si>
+    <t>THOTA KAMALA SREE</t>
+  </si>
+  <si>
+    <t>BT18CSE064</t>
+  </si>
+  <si>
+    <t>MOUNIVARIAMOGHA VARSHA</t>
+  </si>
+  <si>
+    <t>BT18CSE077</t>
+  </si>
+  <si>
+    <t>RUTURAJ N SHELGAONKAR</t>
+  </si>
+  <si>
+    <t>BT18CSE078</t>
+  </si>
+  <si>
+    <t>NAVEEN NAYAK</t>
+  </si>
+  <si>
+    <t>BT18CSE082</t>
+  </si>
+  <si>
+    <t>DOLA BALU PRAKASH</t>
+  </si>
+  <si>
+    <t>BT18CSE090</t>
+  </si>
+  <si>
+    <t>SONU KUMAR MOURYA</t>
+  </si>
+  <si>
+    <t>BT18CSE091</t>
+  </si>
+  <si>
+    <t>MUNISH MALPOTRA</t>
+  </si>
+  <si>
+    <t>BT18CSE093</t>
+  </si>
+  <si>
+    <t>JADHAV SAI KRISHNA</t>
+  </si>
+  <si>
+    <t>BT18CSE097</t>
+  </si>
+  <si>
+    <t>R BHAGWAN NAIK</t>
+  </si>
+  <si>
+    <t>BT17ECE006</t>
+  </si>
+  <si>
+    <t>DAMINETI UMESH CHANDRA</t>
+  </si>
+  <si>
+    <t>BT17ECE041</t>
+  </si>
+  <si>
+    <t>VIVEK SHARMA</t>
+  </si>
+  <si>
+    <t>BT17ECE048</t>
+  </si>
+  <si>
+    <t>AMAN PANDEY</t>
+  </si>
+  <si>
+    <t>BT17ECE059</t>
+  </si>
+  <si>
+    <t>AMAN BAHAL</t>
+  </si>
+  <si>
+    <t>BT17ECE074</t>
+  </si>
+  <si>
+    <t>SUMANT WANKAR</t>
+  </si>
+  <si>
+    <t>BT17CSE021</t>
+  </si>
+  <si>
+    <t>PRABHAS PRASAD</t>
+  </si>
+  <si>
+    <t>BT17CSE113</t>
+  </si>
+  <si>
+    <t>L MAHESH BABU</t>
+  </si>
+  <si>
+    <t>BT16ECE001</t>
+  </si>
+  <si>
+    <t>DEVNARAYAN CHAKRAVARTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOCHERLA VENKATA SAI RAKESH </t>
+  </si>
+  <si>
+    <t>Sandeep Kumar</t>
+  </si>
+  <si>
+    <t>APURV CHANDEL (TRF TO CSE BT18CSE100)</t>
+  </si>
+  <si>
+    <t>Feroz Shah Mohammad</t>
+  </si>
+  <si>
+    <t>Ajay Rama Raju Patel</t>
+  </si>
+  <si>
+    <t>Jenny Deepak Kambhampati</t>
+  </si>
+  <si>
+    <t>KOPPULA BHANU PRAKASH REDDY(TRF TO CSE BT18CSE102)</t>
+  </si>
+  <si>
+    <t>Saurabh Kumbhalwar</t>
+  </si>
+  <si>
+    <t>Pechetti Sasidhar</t>
+  </si>
+  <si>
+    <t>Sunny Kumar</t>
+  </si>
+  <si>
+    <t>Ashutosh Singh</t>
+  </si>
+  <si>
+    <t>Kodam Vishal</t>
+  </si>
+  <si>
+    <t>Adarsh Kadiri</t>
+  </si>
+  <si>
+    <t>Mudit Gupta</t>
+  </si>
+  <si>
+    <t>Sai Teja Kmvp</t>
+  </si>
+  <si>
+    <t>Kodigudla Gayathri</t>
+  </si>
+  <si>
+    <t>Devyani Gohokar</t>
+  </si>
+  <si>
+    <t>K. Bharath</t>
+  </si>
+  <si>
+    <t>Ritvik Thakur</t>
+  </si>
+  <si>
+    <t>Gope Avinash</t>
+  </si>
+  <si>
+    <t>Abhishek Bajaj</t>
+  </si>
+  <si>
+    <t>KRISHNA AGARWAL (ADM CANCELLED)</t>
+  </si>
+  <si>
+    <t>Aditya Jaiswal</t>
+  </si>
+  <si>
+    <t>KANNA BALAJI(ADM CANCELLED)</t>
+  </si>
+  <si>
+    <t>SHUBHAM SAGAR (TRF TO CSE BT18CSE101)</t>
+  </si>
+  <si>
+    <t>Aniruddha Gawate</t>
+  </si>
+  <si>
+    <t>Anuj Satish Lathi</t>
+  </si>
+  <si>
+    <t>KHYATHI VARDHINI(ADM CANCELLED)</t>
+  </si>
+  <si>
+    <t>Tushar Pohekar</t>
+  </si>
+  <si>
+    <t>Vogga.ananth</t>
+  </si>
+  <si>
+    <t>Shrijeet Kharche</t>
+  </si>
+  <si>
+    <t>GILAKASAIKUMAR(ADM CANCELLED)</t>
+  </si>
+  <si>
+    <t>Sahil Kesharwani</t>
+  </si>
+  <si>
+    <t>Shashwat Vats</t>
+  </si>
+  <si>
+    <t>Mranal Shroff</t>
+  </si>
+  <si>
+    <t>Etikala Rahul</t>
+  </si>
+  <si>
+    <t>Ayushi Tandon</t>
+  </si>
+  <si>
+    <t>Laasya Cherukuri</t>
+  </si>
+  <si>
+    <t>Gokul Kumar</t>
+  </si>
+  <si>
+    <t>Rahul Kumar</t>
+  </si>
+  <si>
+    <t>Parija Malgaonkar</t>
+  </si>
+  <si>
+    <t>Anuj Nakade</t>
+  </si>
+  <si>
+    <t>Vishal Patel</t>
+  </si>
+  <si>
+    <t>Divyanshu Rahate</t>
+  </si>
+  <si>
+    <t>NIMISH PHALNIKAR  (TRF TO CSE BT18CSE099)</t>
+  </si>
+  <si>
+    <t>E.mamatha</t>
+  </si>
+  <si>
+    <t>Dhiraj Kumar Rai</t>
+  </si>
+  <si>
+    <t>Aman Kose</t>
+  </si>
+  <si>
+    <t>Gaurav Rathore</t>
+  </si>
+  <si>
+    <t>Katikala Bhanu Prathap</t>
+  </si>
+  <si>
+    <t>Devesh Deshpande</t>
+  </si>
+  <si>
+    <t>Rohit Kumar Chaurasiya</t>
+  </si>
+  <si>
+    <t>Prakhar Kumar Singh</t>
+  </si>
+  <si>
+    <t>Boddeda Praveen Kumar</t>
+  </si>
+  <si>
+    <t>T.venkata Karthikeya</t>
+  </si>
+  <si>
+    <t>Vishwapriya</t>
+  </si>
+  <si>
+    <t>V. Jaya Surya Rao Naidu</t>
+  </si>
+  <si>
+    <t>P. VENKATA RAMANA (ADM CANCELLED)</t>
+  </si>
+  <si>
+    <t>G.divya Swaroop</t>
+  </si>
+  <si>
+    <t>Nandini Gulhane</t>
+  </si>
+  <si>
+    <t>Yuvarajsri</t>
+  </si>
+  <si>
+    <t>ELATURI VIJAYA BHANU (ADM CANCELLED)</t>
+  </si>
+  <si>
+    <t>Valluri Koushik</t>
+  </si>
+  <si>
+    <t>Shariq Nehal</t>
+  </si>
+  <si>
+    <t>Paka Hans Juergen Krause</t>
+  </si>
+  <si>
+    <t>Aman Pandey</t>
+  </si>
+  <si>
+    <t>Vasishta Patel</t>
+  </si>
+  <si>
+    <t>Bharath Ch</t>
+  </si>
+  <si>
+    <t>UMESH CHANDRA</t>
+  </si>
+  <si>
+    <t>PRANEETH INUMULA</t>
+  </si>
+  <si>
+    <t>ASHOK KUMAR VARASALA</t>
+  </si>
+  <si>
+    <t>AMAN BAHL</t>
+  </si>
+  <si>
+    <t>DEV NARAYAN CHAKRAWARTI</t>
+  </si>
+  <si>
+    <t>ABSENT</t>
+  </si>
+  <si>
+    <t>Jenny Deepak Kambhampati (NR)</t>
+  </si>
+  <si>
+    <t>Bhupesh Vasantrao Gohokar</t>
+  </si>
+  <si>
+    <t>Dev Narayan Chakrawarti</t>
+  </si>
+  <si>
+    <t>Ayushi Markam</t>
+  </si>
+  <si>
+    <t>Shariq nehal</t>
+  </si>
+  <si>
+    <t>Paka hans juergen krause</t>
+  </si>
+  <si>
+    <t>Vasishta patel .T</t>
+  </si>
+  <si>
+    <t>Bharath ch</t>
+  </si>
+  <si>
+    <t>Aman Bahl</t>
+  </si>
+  <si>
+    <t>Ashok Kumar Varasala</t>
+  </si>
+  <si>
+    <t>Ambuj Yadav</t>
+  </si>
+  <si>
+    <t>Paneri Sahare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APURV CHANDEL </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -455,22 +1025,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -478,8 +1033,95 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,8 +1134,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -529,11 +1183,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,6 +1234,84 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,10 +1530,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -799,14 +1542,14 @@
     <col min="2" max="2" width="50.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -815,8 +1558,29 @@
       <c r="E1" s="12" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,8 +1596,17 @@
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -849,8 +1622,17 @@
       <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -866,8 +1648,17 @@
       <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -883,8 +1674,17 @@
       <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -900,8 +1700,17 @@
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -917,8 +1726,17 @@
       <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -934,8 +1752,17 @@
       <c r="E8" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -951,8 +1778,17 @@
       <c r="E9" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -968,8 +1804,17 @@
       <c r="E10" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
@@ -985,8 +1830,17 @@
       <c r="E11" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -1002,8 +1856,17 @@
       <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1019,8 +1882,17 @@
       <c r="E13" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1036,8 +1908,17 @@
       <c r="E14" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
@@ -1053,8 +1934,17 @@
       <c r="E15" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
@@ -1070,8 +1960,17 @@
       <c r="E16" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
@@ -1087,8 +1986,17 @@
       <c r="E17" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -1104,8 +2012,17 @@
       <c r="E18" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -1121,8 +2038,17 @@
       <c r="E19" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
@@ -1138,8 +2064,17 @@
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -1155,8 +2090,17 @@
       <c r="E21" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
@@ -1172,8 +2116,17 @@
       <c r="E22" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
@@ -1189,8 +2142,17 @@
       <c r="E23" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
@@ -1206,8 +2168,17 @@
       <c r="E24" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>55</v>
       </c>
@@ -1223,8 +2194,17 @@
       <c r="E25" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>57</v>
       </c>
@@ -1240,8 +2220,17 @@
       <c r="E26" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
@@ -1257,8 +2246,17 @@
       <c r="E27" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>61</v>
       </c>
@@ -1274,8 +2272,17 @@
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>63</v>
       </c>
@@ -1291,8 +2298,17 @@
       <c r="E29" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>65</v>
       </c>
@@ -1308,8 +2324,17 @@
       <c r="E30" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>67</v>
       </c>
@@ -1325,8 +2350,17 @@
       <c r="E31" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>69</v>
       </c>
@@ -1342,8 +2376,17 @@
       <c r="E32" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>71</v>
       </c>
@@ -1359,8 +2402,17 @@
       <c r="E33" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>73</v>
       </c>
@@ -1376,8 +2428,17 @@
       <c r="E34" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>75</v>
       </c>
@@ -1393,8 +2454,17 @@
       <c r="E35" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>77</v>
       </c>
@@ -1410,8 +2480,17 @@
       <c r="E36" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -1427,8 +2506,17 @@
       <c r="E37" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -1444,8 +2532,17 @@
       <c r="E38" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -1461,8 +2558,17 @@
       <c r="E39" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F39" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>85</v>
       </c>
@@ -1478,8 +2584,17 @@
       <c r="E40" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>87</v>
       </c>
@@ -1495,8 +2610,17 @@
       <c r="E41" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>89</v>
       </c>
@@ -1512,8 +2636,17 @@
       <c r="E42" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>91</v>
       </c>
@@ -1529,8 +2662,17 @@
       <c r="E43" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F43" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>93</v>
       </c>
@@ -1546,8 +2688,17 @@
       <c r="E44" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F44" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>95</v>
       </c>
@@ -1563,8 +2714,17 @@
       <c r="E45" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F45" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>97</v>
       </c>
@@ -1580,8 +2740,17 @@
       <c r="E46" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F46" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>99</v>
       </c>
@@ -1597,8 +2766,17 @@
       <c r="E47" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>101</v>
       </c>
@@ -1614,8 +2792,17 @@
       <c r="E48" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F48" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>103</v>
       </c>
@@ -1631,8 +2818,17 @@
       <c r="E49" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>105</v>
       </c>
@@ -1648,8 +2844,17 @@
       <c r="E50" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>107</v>
       </c>
@@ -1665,8 +2870,17 @@
       <c r="E51" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>109</v>
       </c>
@@ -1682,8 +2896,17 @@
       <c r="E52" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F52" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>111</v>
       </c>
@@ -1699,8 +2922,17 @@
       <c r="E53" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>113</v>
       </c>
@@ -1716,8 +2948,17 @@
       <c r="E54" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F54" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>115</v>
       </c>
@@ -1733,8 +2974,17 @@
       <c r="E55" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>117</v>
       </c>
@@ -1750,8 +3000,17 @@
       <c r="E56" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F56" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>119</v>
       </c>
@@ -1767,8 +3026,17 @@
       <c r="E57" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F57" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>121</v>
       </c>
@@ -1784,8 +3052,17 @@
       <c r="E58" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F58" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>123</v>
       </c>
@@ -1801,8 +3078,17 @@
       <c r="E59" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F59" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>125</v>
       </c>
@@ -1818,8 +3104,17 @@
       <c r="E60" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F60" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>127</v>
       </c>
@@ -1835,8 +3130,17 @@
       <c r="E61" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F61" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>129</v>
       </c>
@@ -1852,8 +3156,17 @@
       <c r="E62" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F62" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>131</v>
       </c>
@@ -1869,8 +3182,17 @@
       <c r="E63" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>133</v>
       </c>
@@ -1885,10 +3207,7164 @@
       </c>
       <c r="E64" s="10" t="s">
         <v>50</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="19">
+        <v>0</v>
+      </c>
+      <c r="F65" s="19">
+        <v>0</v>
+      </c>
+      <c r="G65" s="19">
+        <v>0</v>
+      </c>
+      <c r="H65" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="19">
+        <v>0</v>
+      </c>
+      <c r="E66" s="19">
+        <v>0</v>
+      </c>
+      <c r="F66" s="19">
+        <v>0</v>
+      </c>
+      <c r="G66" s="19">
+        <v>0</v>
+      </c>
+      <c r="H66" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="19">
+        <v>0</v>
+      </c>
+      <c r="F67" s="19">
+        <v>0</v>
+      </c>
+      <c r="G67" s="19">
+        <v>0</v>
+      </c>
+      <c r="H67" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="19">
+        <v>0</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="19">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="19">
+        <v>0</v>
+      </c>
+      <c r="H68" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="19">
+        <v>0</v>
+      </c>
+      <c r="H69" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="19">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="19">
+        <v>0</v>
+      </c>
+      <c r="H70" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="19">
+        <v>0</v>
+      </c>
+      <c r="E71" s="19">
+        <v>0</v>
+      </c>
+      <c r="F71" s="19">
+        <v>0</v>
+      </c>
+      <c r="G71" s="19">
+        <v>0</v>
+      </c>
+      <c r="H71" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="19">
+        <v>0</v>
+      </c>
+      <c r="F72" s="19">
+        <v>0</v>
+      </c>
+      <c r="G72" s="19">
+        <v>0</v>
+      </c>
+      <c r="H72" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="19">
+        <v>0</v>
+      </c>
+      <c r="E73" s="19">
+        <v>0</v>
+      </c>
+      <c r="F73" s="19">
+        <v>0</v>
+      </c>
+      <c r="G73" s="19">
+        <v>0</v>
+      </c>
+      <c r="H73" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="19">
+        <v>0</v>
+      </c>
+      <c r="E74" s="19">
+        <v>0</v>
+      </c>
+      <c r="F74" s="19">
+        <v>0</v>
+      </c>
+      <c r="G74" s="19">
+        <v>0</v>
+      </c>
+      <c r="H74" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="19">
+        <v>0</v>
+      </c>
+      <c r="D75" s="19">
+        <v>0</v>
+      </c>
+      <c r="E75" s="19">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="19">
+        <v>0</v>
+      </c>
+      <c r="H75" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="19">
+        <v>0</v>
+      </c>
+      <c r="D76" s="19">
+        <v>0</v>
+      </c>
+      <c r="E76" s="19">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="19">
+        <v>0</v>
+      </c>
+      <c r="H76" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="19">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" s="19">
+        <v>0</v>
+      </c>
+      <c r="G77" s="19">
+        <v>0</v>
+      </c>
+      <c r="H77" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="19">
+        <v>0</v>
+      </c>
+      <c r="D78" s="19">
+        <v>0</v>
+      </c>
+      <c r="E78" s="19">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="19">
+        <v>0</v>
+      </c>
+      <c r="H78" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="19">
+        <v>0</v>
+      </c>
+      <c r="D79" s="19">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="19">
+        <v>0</v>
+      </c>
+      <c r="G79" s="19">
+        <v>0</v>
+      </c>
+      <c r="H79" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" s="19">
+        <v>0</v>
+      </c>
+      <c r="D80" s="19">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="19">
+        <v>0</v>
+      </c>
+      <c r="G80" s="19">
+        <v>0</v>
+      </c>
+      <c r="H80" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="19">
+        <v>0</v>
+      </c>
+      <c r="D81" s="19">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="19">
+        <v>0</v>
+      </c>
+      <c r="G81" s="19">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="19">
+        <v>0</v>
+      </c>
+      <c r="D82" s="19">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="19">
+        <v>0</v>
+      </c>
+      <c r="G82" s="19">
+        <v>0</v>
+      </c>
+      <c r="H82" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="19">
+        <v>0</v>
+      </c>
+      <c r="D83" s="19">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="19">
+        <v>0</v>
+      </c>
+      <c r="G83" s="19">
+        <v>0</v>
+      </c>
+      <c r="H83" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="19">
+        <v>0</v>
+      </c>
+      <c r="D84" s="19">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="19">
+        <v>0</v>
+      </c>
+      <c r="G84" s="19">
+        <v>0</v>
+      </c>
+      <c r="H84" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="19">
+        <v>0</v>
+      </c>
+      <c r="D85" s="19">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="19">
+        <v>0</v>
+      </c>
+      <c r="G85" s="19">
+        <v>0</v>
+      </c>
+      <c r="H85" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" s="19">
+        <v>0</v>
+      </c>
+      <c r="D86" s="19">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="19">
+        <v>0</v>
+      </c>
+      <c r="G86" s="19">
+        <v>0</v>
+      </c>
+      <c r="H86" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="19">
+        <v>0</v>
+      </c>
+      <c r="D87" s="19">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F87" s="19">
+        <v>0</v>
+      </c>
+      <c r="G87" s="19">
+        <v>0</v>
+      </c>
+      <c r="H87" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="19">
+        <v>0</v>
+      </c>
+      <c r="D88" s="19">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="19">
+        <v>0</v>
+      </c>
+      <c r="G88" s="19">
+        <v>0</v>
+      </c>
+      <c r="H88" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" s="19">
+        <v>0</v>
+      </c>
+      <c r="D89" s="19">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="19">
+        <v>0</v>
+      </c>
+      <c r="G89" s="19">
+        <v>0</v>
+      </c>
+      <c r="H89" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" s="19">
+        <v>0</v>
+      </c>
+      <c r="D90" s="19">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="19">
+        <v>0</v>
+      </c>
+      <c r="G90" s="19">
+        <v>0</v>
+      </c>
+      <c r="H90" s="19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.77734375" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I64" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="33">
+        <v>0</v>
+      </c>
+      <c r="D65" s="33">
+        <v>0</v>
+      </c>
+      <c r="E65" s="33">
+        <v>0</v>
+      </c>
+      <c r="F65" s="33">
+        <v>0</v>
+      </c>
+      <c r="G65" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="33">
+        <v>0</v>
+      </c>
+      <c r="I65" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="33">
+        <v>0</v>
+      </c>
+      <c r="D66" s="33">
+        <v>0</v>
+      </c>
+      <c r="E66" s="33">
+        <v>0</v>
+      </c>
+      <c r="F66" s="33">
+        <v>0</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" s="33">
+        <v>0</v>
+      </c>
+      <c r="I66" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="33">
+        <v>0</v>
+      </c>
+      <c r="D67" s="33">
+        <v>0</v>
+      </c>
+      <c r="E67" s="33">
+        <v>0</v>
+      </c>
+      <c r="F67" s="33">
+        <v>0</v>
+      </c>
+      <c r="G67" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="33">
+        <v>0</v>
+      </c>
+      <c r="I67" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="33">
+        <v>0</v>
+      </c>
+      <c r="D68" s="33">
+        <v>0</v>
+      </c>
+      <c r="E68" s="33">
+        <v>0</v>
+      </c>
+      <c r="F68" s="33">
+        <v>0</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" s="33">
+        <v>0</v>
+      </c>
+      <c r="I68" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="33">
+        <v>0</v>
+      </c>
+      <c r="D69" s="33">
+        <v>0</v>
+      </c>
+      <c r="E69" s="33">
+        <v>0</v>
+      </c>
+      <c r="F69" s="33">
+        <v>0</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="33">
+        <v>0</v>
+      </c>
+      <c r="I69" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="33">
+        <v>0</v>
+      </c>
+      <c r="D70" s="33">
+        <v>0</v>
+      </c>
+      <c r="E70" s="33">
+        <v>0</v>
+      </c>
+      <c r="F70" s="33">
+        <v>0</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="33">
+        <v>0</v>
+      </c>
+      <c r="I70" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="33">
+        <v>0</v>
+      </c>
+      <c r="D71" s="33">
+        <v>0</v>
+      </c>
+      <c r="E71" s="33">
+        <v>0</v>
+      </c>
+      <c r="F71" s="33">
+        <v>0</v>
+      </c>
+      <c r="G71" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="H71" s="33">
+        <v>0</v>
+      </c>
+      <c r="I71" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="33">
+        <v>0</v>
+      </c>
+      <c r="D72" s="33">
+        <v>0</v>
+      </c>
+      <c r="E72" s="33">
+        <v>0</v>
+      </c>
+      <c r="F72" s="33">
+        <v>0</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="H72" s="33">
+        <v>0</v>
+      </c>
+      <c r="I72" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="33">
+        <v>0</v>
+      </c>
+      <c r="D73" s="33">
+        <v>0</v>
+      </c>
+      <c r="E73" s="33">
+        <v>0</v>
+      </c>
+      <c r="F73" s="33">
+        <v>0</v>
+      </c>
+      <c r="G73" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H73" s="33">
+        <v>0</v>
+      </c>
+      <c r="I73" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="33">
+        <v>0</v>
+      </c>
+      <c r="D74" s="33">
+        <v>0</v>
+      </c>
+      <c r="E74" s="33">
+        <v>0</v>
+      </c>
+      <c r="F74" s="33">
+        <v>0</v>
+      </c>
+      <c r="G74" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H74" s="33">
+        <v>0</v>
+      </c>
+      <c r="I74" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="33">
+        <v>0</v>
+      </c>
+      <c r="D75" s="33">
+        <v>0</v>
+      </c>
+      <c r="E75" s="33">
+        <v>0</v>
+      </c>
+      <c r="F75" s="33">
+        <v>0</v>
+      </c>
+      <c r="G75" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H75" s="33">
+        <v>0</v>
+      </c>
+      <c r="I75" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="33">
+        <v>0</v>
+      </c>
+      <c r="D76" s="33">
+        <v>0</v>
+      </c>
+      <c r="E76" s="33">
+        <v>0</v>
+      </c>
+      <c r="F76" s="33">
+        <v>0</v>
+      </c>
+      <c r="G76" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H76" s="33">
+        <v>0</v>
+      </c>
+      <c r="I76" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" s="33">
+        <v>0</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="33">
+        <v>0</v>
+      </c>
+      <c r="H77" s="33">
+        <v>0</v>
+      </c>
+      <c r="I77" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="33">
+        <v>0</v>
+      </c>
+      <c r="D78" s="33">
+        <v>0</v>
+      </c>
+      <c r="E78" s="33">
+        <v>0</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="33">
+        <v>0</v>
+      </c>
+      <c r="H78" s="33">
+        <v>0</v>
+      </c>
+      <c r="I78" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="33">
+        <v>0</v>
+      </c>
+      <c r="E79" s="33">
+        <v>0</v>
+      </c>
+      <c r="F79" s="33">
+        <v>0</v>
+      </c>
+      <c r="G79" s="33">
+        <v>0</v>
+      </c>
+      <c r="H79" s="33">
+        <v>0</v>
+      </c>
+      <c r="I79" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" s="33">
+        <v>0</v>
+      </c>
+      <c r="D80" s="33">
+        <v>0</v>
+      </c>
+      <c r="E80" s="33">
+        <v>0</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="33">
+        <v>0</v>
+      </c>
+      <c r="H80" s="33">
+        <v>0</v>
+      </c>
+      <c r="I80" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="33">
+        <v>0</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F81" s="33">
+        <v>0</v>
+      </c>
+      <c r="G81" s="33">
+        <v>0</v>
+      </c>
+      <c r="H81" s="33">
+        <v>0</v>
+      </c>
+      <c r="I81" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="33">
+        <v>0</v>
+      </c>
+      <c r="D82" s="33">
+        <v>0</v>
+      </c>
+      <c r="E82" s="33">
+        <v>0</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="33">
+        <v>0</v>
+      </c>
+      <c r="H82" s="33">
+        <v>0</v>
+      </c>
+      <c r="I82" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="33">
+        <v>0</v>
+      </c>
+      <c r="E83" s="33">
+        <v>0</v>
+      </c>
+      <c r="F83" s="33">
+        <v>0</v>
+      </c>
+      <c r="G83" s="33">
+        <v>0</v>
+      </c>
+      <c r="H83" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I83" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="33">
+        <v>0</v>
+      </c>
+      <c r="E84" s="33">
+        <v>0</v>
+      </c>
+      <c r="F84" s="33">
+        <v>0</v>
+      </c>
+      <c r="G84" s="33">
+        <v>0</v>
+      </c>
+      <c r="H84" s="33">
+        <v>0</v>
+      </c>
+      <c r="I84" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="33">
+        <v>0</v>
+      </c>
+      <c r="E85" s="33">
+        <v>0</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" s="33">
+        <v>0</v>
+      </c>
+      <c r="H85" s="33">
+        <v>0</v>
+      </c>
+      <c r="I85" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" s="33">
+        <v>0</v>
+      </c>
+      <c r="D86" s="33">
+        <v>0</v>
+      </c>
+      <c r="E86" s="33">
+        <v>0</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="33">
+        <v>0</v>
+      </c>
+      <c r="H86" s="33">
+        <v>0</v>
+      </c>
+      <c r="I86" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G87" s="33">
+        <v>0</v>
+      </c>
+      <c r="H87" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I87" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" s="33">
+        <v>0</v>
+      </c>
+      <c r="D88" s="39">
+        <v>0</v>
+      </c>
+      <c r="E88" s="33">
+        <v>0</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="33">
+        <v>0</v>
+      </c>
+      <c r="H88" s="33">
+        <v>0</v>
+      </c>
+      <c r="I88" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="39">
+        <v>0</v>
+      </c>
+      <c r="E89" s="33">
+        <v>0</v>
+      </c>
+      <c r="F89" s="29">
+        <v>0</v>
+      </c>
+      <c r="G89" s="33">
+        <v>0</v>
+      </c>
+      <c r="H89" s="33">
+        <v>0</v>
+      </c>
+      <c r="I89" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="33">
+        <v>0</v>
+      </c>
+      <c r="E90" s="29">
+        <v>0</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="33">
+        <v>0</v>
+      </c>
+      <c r="H90" s="33">
+        <v>0</v>
+      </c>
+      <c r="I90" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="29">
+        <v>0</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="33">
+        <v>0</v>
+      </c>
+      <c r="H91" s="33">
+        <v>0</v>
+      </c>
+      <c r="I91" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="29">
+        <v>0</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="29">
+        <v>0</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="33">
+        <v>0</v>
+      </c>
+      <c r="H92" s="33">
+        <v>0</v>
+      </c>
+      <c r="I92" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C93" s="29">
+        <v>0</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E93" s="29">
+        <v>0</v>
+      </c>
+      <c r="F93" s="29">
+        <v>0</v>
+      </c>
+      <c r="G93" s="29">
+        <v>0</v>
+      </c>
+      <c r="H93" s="29">
+        <v>0</v>
+      </c>
+      <c r="I93" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="29">
+        <v>0</v>
+      </c>
+      <c r="D94" s="29">
+        <v>0</v>
+      </c>
+      <c r="E94" s="29">
+        <v>0</v>
+      </c>
+      <c r="F94" s="29">
+        <v>0</v>
+      </c>
+      <c r="G94" s="29">
+        <v>0</v>
+      </c>
+      <c r="H94" s="29">
+        <v>0</v>
+      </c>
+      <c r="I94" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="29">
+        <v>0</v>
+      </c>
+      <c r="D95" s="29">
+        <v>0</v>
+      </c>
+      <c r="E95" s="29">
+        <v>0</v>
+      </c>
+      <c r="F95" s="29">
+        <v>0</v>
+      </c>
+      <c r="G95" s="29">
+        <v>0</v>
+      </c>
+      <c r="H95" s="29">
+        <v>0</v>
+      </c>
+      <c r="I95" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="29">
+        <v>0</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="29">
+        <v>0</v>
+      </c>
+      <c r="F96" s="29">
+        <v>0</v>
+      </c>
+      <c r="G96" s="29">
+        <v>0</v>
+      </c>
+      <c r="H96" s="29">
+        <v>0</v>
+      </c>
+      <c r="I96" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="29">
+        <v>0</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="29">
+        <v>0</v>
+      </c>
+      <c r="F97" s="29">
+        <v>0</v>
+      </c>
+      <c r="G97" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97" s="29">
+        <v>0</v>
+      </c>
+      <c r="I97" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A98" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B98" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="29">
+        <v>0</v>
+      </c>
+      <c r="E98" s="29">
+        <v>0</v>
+      </c>
+      <c r="F98" s="29">
+        <v>0</v>
+      </c>
+      <c r="G98" s="33">
+        <v>0</v>
+      </c>
+      <c r="H98" s="29">
+        <v>0</v>
+      </c>
+      <c r="I98" s="29">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>287</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>295</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>201</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>201</v>
+      </c>
+      <c r="H58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>301</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>302</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>201</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" t="s">
+        <v>305</v>
+      </c>
+      <c r="C65" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" t="s">
+        <v>306</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" t="s">
+        <v>307</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>308</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s">
+        <v>148</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" t="s">
+        <v>309</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>148</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" t="s">
+        <v>310</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" t="s">
+        <v>311</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" t="s">
+        <v>312</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" t="s">
+        <v>313</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>315</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>287</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>295</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>301</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>302</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" t="s">
+        <v>318</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" t="s">
+        <v>304</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" t="s">
+        <v>319</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>321</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>322</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" t="s">
+        <v>323</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" t="s">
+        <v>324</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" t="s">
+        <v>325</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" t="s">
+        <v>326</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" t="s">
+        <v>327</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>